--- a/semiconductors/section3/topic6/assets/ac-Op-Amp-Freq-Response.xlsx
+++ b/semiconductors/section3/topic6/assets/ac-Op-Amp-Freq-Response.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Computer-Engineering\CMPE1400-Semiconductors\Semiconductors-Private\n-Operational-Amplifiers\m-Frequency-Response-and-Filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E868FB1-CEEF-412C-81D7-93AB989D8470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B970BB2-920E-4B4E-B9E4-8999B38AFDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="946" activeTab="4" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="946" activeTab="3" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Les-Intro-P2" sheetId="3" r:id="rId1"/>
-    <sheet name="Les-Freq-Issues-P1" sheetId="7" r:id="rId2"/>
-    <sheet name="Les-Freq-Is-P1-Small-Sig" sheetId="14" r:id="rId3"/>
-    <sheet name="Les-Freq-Is-P1-Large-Sig" sheetId="15" r:id="rId4"/>
-    <sheet name="Project6" sheetId="16" r:id="rId5"/>
+    <sheet name="Les-Intro-P2-NO-PICTURE" sheetId="3" r:id="rId1"/>
+    <sheet name="Les-Freq-Issues" sheetId="7" r:id="rId2"/>
+    <sheet name="Les-Freq-Issues-Small-Sig" sheetId="14" r:id="rId3"/>
+    <sheet name="Les-Freq-Issues-Large-Sig" sheetId="15" r:id="rId4"/>
+    <sheet name="Project6-Freq-Limitations" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>Units</t>
   </si>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>Formula from Intro to Freq Response Page2</t>
+  </si>
+  <si>
+    <t>Value comes from Q7 of Small Signal Freq Limitation Page1</t>
+  </si>
+  <si>
+    <t>Formula from Op Amp Frequency Issues and Filters Page1</t>
+  </si>
+  <si>
+    <t>Value comes from Q9 of Small Signal Freq Limitation Page1</t>
+  </si>
+  <si>
+    <t>Data sheet does NOT say this is the Unity Gain BW but it is !</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Rise_Time_max_Data_Sheet</t>
+  </si>
+  <si>
+    <t>From data sheet listed as MAX Rise Time in us (0.8)</t>
+  </si>
+  <si>
+    <t>Unity_Gain_BW_Theoretical</t>
+  </si>
+  <si>
+    <t>From data sheet listed as minimum Bandwidth in MHz (0.437)</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -304,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,6 +361,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,21 +702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F3D1D-6C1C-4401-89D7-5ED6879BF7D0}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="14.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
@@ -862,21 +895,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D947DE6F-680F-4B81-9D2B-A3A11F35E0CC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="15.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
@@ -1096,23 +1129,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42A88A6-763D-4C12-8241-693E41158E70}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
@@ -1145,139 +1178,157 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>TEXT(0.35,"##0.00")</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>TEXT(0.0000008,"##0.00E+0")</f>
+        <v>800.00E-9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>_xlfn.CONCAT(A3,"/",A4," (note 2)")</f>
+        <v>Constant/Rise_Time_max_Data_Sheet (note 2)</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>_xlfn.CONCAT(D3,"/",D4)</f>
+        <v>0.35/800.00E-9</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>TEXT(D3/D4,"##0.00E+0")</f>
+        <v>437.50E+3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="str">
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f>TEXT(437000,"##0E+0")</f>
         <v>437E+3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D7" s="3" t="str">
         <f>TEXT(437000,"##0E+0")</f>
         <v>437E+3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f>TEXT(56000,"##0E+0")</f>
         <v>56E+3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f>TEXT(10000,"##0E+0")</f>
         <v>10E+3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>_xlfn.CONCAT(A6,"/",A7,"   inverting")</f>
-        <v>Rf/Ri   inverting</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D6,")/(",D7,")")</f>
-        <v>(56E+3)/(10E+3)</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>TEXT(D6/D7,"##0.00")</f>
-        <v>5.60</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>_xlfn.CONCAT(A4,"/",A8)</f>
-        <v>Gain_BW_Product/Av</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>_xlfn.CONCAT(D4,"/",D8)</f>
-        <v>437E+3/5.60</v>
-      </c>
-      <c r="D9" s="7">
-        <f>D4/D8</f>
-        <v>78035.71428571429</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f>TEXT(100000,"##0E+0")</f>
-        <v>100E+3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>_xlfn.CONCAT(A9,"/",A10,"   inverting")</f>
+        <v>Rf/Ri   inverting</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/(",D10,")")</f>
+        <v>(56E+3)/(10E+3)</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>TEXT(D9/D10,"##0.00")</f>
+        <v>5.60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>_xlfn.CONCAT(A4,"/",A11)</f>
-        <v>Gain_BW_Product/BW_required</v>
+        <f>_xlfn.CONCAT(A7,"/",A11)</f>
+        <v>Gain_BW_Product/Av</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>_xlfn.CONCAT(D4,"/",D11)</f>
-        <v>437E+3/100E+3</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>TEXT(D4/D11,"##0.00")</f>
-        <v>4.37</v>
+        <f>_xlfn.CONCAT(D7,"/",D11)</f>
+        <v>437E+3/5.60</v>
+      </c>
+      <c r="D12" s="7">
+        <f>D7/D11</f>
+        <v>78035.71428571429</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="str">
         <f>TEXT(100000,"##0E+0")</f>
@@ -1289,75 +1340,116 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>_xlfn.CONCAT(A7,"/",A14)</f>
+        <v>Gain_BW_Product/BW_required</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>_xlfn.CONCAT(D7,"/",D14)</f>
+        <v>437E+3/100E+3</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>TEXT(D7/D14,"##0.00")</f>
+        <v>4.37</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>TEXT(100000,"##0E+0")</f>
+        <v>100E+3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>_xlfn.CONCAT(A14,"/(sqrt(pow(2,1/",A15,")-1)")</f>
+      <c r="B19" s="5" t="str">
+        <f>_xlfn.CONCAT(A17,"/(sqrt(pow(2,1/",A18,")-1)")</f>
         <v>BW_circuit/(sqrt(pow(2,1/stages)-1)</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f>_xlfn.CONCAT(D14,"/(sqrt(pow(2,1/",D15,")-1)")</f>
+      <c r="C19" s="1" t="str">
+        <f>_xlfn.CONCAT(D17,"/(sqrt(pow(2,1/",D18,")-1)")</f>
         <v>100E+3/(sqrt(pow(2,1/2)-1)</v>
       </c>
-      <c r="D16" s="7" t="str">
-        <f>TEXT(D14/(SQRT(POWER(2,1/D15)-1)),"##0.00E+0")</f>
+      <c r="D19" s="7" t="str">
+        <f>TEXT(D17/(SQRT(POWER(2,1/D18)-1)),"##0.00E+0")</f>
         <v>155.38E+3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
+      <c r="G19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f>_xlfn.CONCAT(A4,"/",A16)</f>
+      <c r="B21" s="1" t="str">
+        <f>_xlfn.CONCAT(A7,"/",A19)</f>
         <v>Gain_BW_Product/BW_stage</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f>_xlfn.CONCAT(D4,"/",D16)</f>
+      <c r="C21" s="1" t="str">
+        <f>_xlfn.CONCAT(D7,"/",D19)</f>
         <v>437E+3/155.38E+3</v>
       </c>
-      <c r="D18" s="7" t="str">
-        <f>TEXT(D4/D16,"##0.000")</f>
+      <c r="D21" s="7" t="str">
+        <f>TEXT(D7/D19,"##0.000")</f>
         <v>2.812</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <f>_xlfn.CONCAT(A18,"*",A18)</f>
+      <c r="B23" s="1" t="str">
+        <f>_xlfn.CONCAT(A21,"*",A21)</f>
         <v>Av_per_stage*Av_per_stage</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f>_xlfn.CONCAT(D18,"*",D18)</f>
+      <c r="C23" s="1" t="str">
+        <f>_xlfn.CONCAT(D21,"*",D21)</f>
         <v>2.812*2.812</v>
       </c>
-      <c r="D20" s="7" t="str">
-        <f>TEXT(D18*D18,"##0.00")</f>
+      <c r="D23" s="7" t="str">
+        <f>TEXT(D21*D21,"##0.00")</f>
         <v>7.91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1371,23 +1463,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC24383C-0B1B-4CE5-81D1-C6D166E25427}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="19.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.94921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
@@ -1632,18 +1724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EDAB8-B1DB-43C6-96FF-BFDB3AB6FA11}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.6">
